--- a/Financial Analysis/EQUITIES/PG.xlsx
+++ b/Financial Analysis/EQUITIES/PG.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/zxt18_ic_ac_uk/Documents/Financial Analysis/EQUITIES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0C46D47F-DC7A-4687-894A-92F4728575B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7384BBB0-8BF8-4528-9F16-A7C7C8890F81}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{0C46D47F-DC7A-4687-894A-92F4728575B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F411BF24-39E7-4C22-BF60-42CC5BEF29EA}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6948" yWindow="4356" windowWidth="17340" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -70,10 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,8 +557,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -618,21 +616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
-<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <volType type="realTimeData">
-    <main first="bofaddin.rtdserver">
-      <tp t="s">
-        <v>#N/A N/A</v>
-        <stp/>
-        <stp>BDH|12486176534350510492</stp>
-        <tr r="A8" s="2"/>
-      </tp>
-    </main>
-  </volType>
-</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,16 +941,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -983,7 +968,7 @@
         <v>40178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -991,7 +976,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -999,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1007,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1018,10 +1003,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=146")</f>
-        <v>44592</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="e">
+        <f ca="1">_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=146")</f>
+        <v>#NAME?</v>
       </c>
       <c r="B8">
         <v>160.44999999999999</v>
@@ -1030,7 +1015,7 @@
         <v>195186523</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>44561</v>
       </c>
@@ -1041,7 +1026,7 @@
         <v>190127286</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>44530</v>
       </c>
@@ -1052,7 +1037,7 @@
         <v>138036563</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>44498</v>
       </c>
@@ -1063,7 +1048,7 @@
         <v>137105134</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>44469</v>
       </c>
@@ -1074,7 +1059,7 @@
         <v>148065217</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>44439</v>
       </c>
@@ -1085,7 +1070,7 @@
         <v>125299838</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>44407</v>
       </c>
@@ -1096,7 +1081,7 @@
         <v>152016209</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>44377</v>
       </c>
@@ -1107,7 +1092,7 @@
         <v>186293569</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>44344</v>
       </c>
@@ -1118,7 +1103,7 @@
         <v>197971077</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>44316</v>
       </c>
@@ -1129,7 +1114,7 @@
         <v>166857646</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>44286</v>
       </c>
@@ -1140,7 +1125,7 @@
         <v>206513597</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>44253</v>
       </c>
@@ -1151,7 +1136,7 @@
         <v>150958986</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>44225</v>
       </c>
@@ -1162,7 +1147,7 @@
         <v>154862068</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>44196</v>
       </c>
@@ -1173,7 +1158,7 @@
         <v>144227083</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>44165</v>
       </c>
@@ -1184,7 +1169,7 @@
         <v>133957757</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>44134</v>
       </c>
@@ -1195,7 +1180,7 @@
         <v>126555441</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>44104</v>
       </c>
@@ -1206,7 +1191,7 @@
         <v>128869636</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>44074</v>
       </c>
@@ -1217,7 +1202,7 @@
         <v>121961579</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>44043</v>
       </c>
@@ -1228,7 +1213,7 @@
         <v>142770226</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>44012</v>
       </c>
@@ -1239,7 +1224,7 @@
         <v>175942709</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>43980</v>
       </c>
@@ -1250,7 +1235,7 @@
         <v>157447675</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>43951</v>
       </c>
@@ -1261,7 +1246,7 @@
         <v>245062717</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>43921</v>
       </c>
@@ -1272,7 +1257,7 @@
         <v>343550259</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>43889</v>
       </c>
@@ -1283,7 +1268,7 @@
         <v>149850649</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>43861</v>
       </c>
@@ -1294,7 +1279,7 @@
         <v>153642883</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>43830</v>
       </c>
@@ -1305,7 +1290,7 @@
         <v>137973051</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>43798</v>
       </c>
@@ -1316,7 +1301,7 @@
         <v>125224948</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>43769</v>
       </c>
@@ -1327,7 +1312,7 @@
         <v>153795547</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>43738</v>
       </c>
@@ -1338,7 +1323,7 @@
         <v>140935471</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>43707</v>
       </c>
@@ -1349,7 +1334,7 @@
         <v>164573801</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>43677</v>
       </c>
@@ -1360,7 +1345,7 @@
         <v>166958420</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>43644</v>
       </c>
@@ -1371,7 +1356,7 @@
         <v>151127417</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>43616</v>
       </c>
@@ -1382,7 +1367,7 @@
         <v>139583306</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>43585</v>
       </c>
@@ -1393,7 +1378,7 @@
         <v>148285897</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>43553</v>
       </c>
@@ -1404,7 +1389,7 @@
         <v>180276529</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>43524</v>
       </c>
@@ -1415,7 +1400,7 @@
         <v>176166492</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>43496</v>
       </c>
@@ -1426,7 +1411,7 @@
         <v>225457864</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43465</v>
       </c>
@@ -1437,7 +1422,7 @@
         <v>224357126</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>43434</v>
       </c>
@@ -1448,7 +1433,7 @@
         <v>214200161</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>43404</v>
       </c>
@@ -1459,7 +1444,7 @@
         <v>273770724</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>43371</v>
       </c>
@@ -1470,7 +1455,7 @@
         <v>137121679</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>43343</v>
       </c>
@@ -1481,7 +1466,7 @@
         <v>147694715</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>43312</v>
       </c>
@@ -1492,7 +1477,7 @@
         <v>167370080</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>43280</v>
       </c>
@@ -1503,7 +1488,7 @@
         <v>191799741</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>43251</v>
       </c>
@@ -1514,7 +1499,7 @@
         <v>184830924</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>43220</v>
       </c>
@@ -1525,7 +1510,7 @@
         <v>215308030</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>43188</v>
       </c>
@@ -1536,7 +1521,7 @@
         <v>211186280</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>43159</v>
       </c>
@@ -1547,7 +1532,7 @@
         <v>224924746</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>43131</v>
       </c>
@@ -1558,7 +1543,7 @@
         <v>190675874</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>43098</v>
       </c>
@@ -1569,7 +1554,7 @@
         <v>130697319</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>43069</v>
       </c>
@@ -1580,7 +1565,7 @@
         <v>123550746</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>43039</v>
       </c>
@@ -1591,7 +1576,7 @@
         <v>179372024</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>43007</v>
       </c>
@@ -1602,7 +1587,7 @@
         <v>138824677</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>42978</v>
       </c>
@@ -1613,7 +1598,7 @@
         <v>131332487</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>42947</v>
       </c>
@@ -1624,7 +1609,7 @@
         <v>122105065</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>42916</v>
       </c>
@@ -1635,7 +1620,7 @@
         <v>143596232</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>42886</v>
       </c>
@@ -1646,7 +1631,7 @@
         <v>138196442</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>42853</v>
       </c>
@@ -1657,7 +1642,7 @@
         <v>136581734</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>42825</v>
       </c>
@@ -1668,7 +1653,7 @@
         <v>199190314</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>42794</v>
       </c>
@@ -1679,7 +1664,7 @@
         <v>196203689</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>42766</v>
       </c>
@@ -1690,7 +1675,7 @@
         <v>193159674</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>42734</v>
       </c>
@@ -1701,7 +1686,7 @@
         <v>174313329</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>42704</v>
       </c>
@@ -1712,7 +1697,7 @@
         <v>205505477</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>42674</v>
       </c>
@@ -1723,7 +1708,7 @@
         <v>376452550</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>42643</v>
       </c>
@@ -1734,7 +1719,7 @@
         <v>846409742</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>42613</v>
       </c>
@@ -1745,7 +1730,7 @@
         <v>185975453</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>42580</v>
       </c>
@@ -1756,7 +1741,7 @@
         <v>145184266</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>42551</v>
       </c>
@@ -1767,7 +1752,7 @@
         <v>160719681</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>42521</v>
       </c>
@@ -1778,7 +1763,7 @@
         <v>137377421</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>42489</v>
       </c>
@@ -1789,7 +1774,7 @@
         <v>161687334</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>42460</v>
       </c>
@@ -1800,7 +1785,7 @@
         <v>215175442</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>42429</v>
       </c>
@@ -1811,7 +1796,7 @@
         <v>192561033</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>42398</v>
       </c>
@@ -1822,7 +1807,7 @@
         <v>229299999</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>42369</v>
       </c>
@@ -1833,7 +1818,7 @@
         <v>207513661</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>42338</v>
       </c>
@@ -1844,7 +1829,7 @@
         <v>146640944</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>42307</v>
       </c>
@@ -1855,7 +1840,7 @@
         <v>202316526</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>42277</v>
       </c>
@@ -1866,7 +1851,7 @@
         <v>229174591</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>42247</v>
       </c>
@@ -1877,7 +1862,7 @@
         <v>239919761</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>42216</v>
       </c>
@@ -1888,7 +1873,7 @@
         <v>180179330</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>42185</v>
       </c>
@@ -1899,7 +1884,7 @@
         <v>188529014</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>42153</v>
       </c>
@@ -1910,7 +1895,7 @@
         <v>136582584</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>42124</v>
       </c>
@@ -1921,7 +1906,7 @@
         <v>169776819</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>42094</v>
       </c>
@@ -1932,7 +1917,7 @@
         <v>201716884</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>42062</v>
       </c>
@@ -1943,7 +1928,7 @@
         <v>151945152</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>42034</v>
       </c>
@@ -1954,7 +1939,7 @@
         <v>170716611</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>42004</v>
       </c>
@@ -1965,7 +1950,7 @@
         <v>142092688</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>41971</v>
       </c>
@@ -1976,7 +1961,7 @@
         <v>136835330</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>41943</v>
       </c>
@@ -1987,7 +1972,7 @@
         <v>221935862</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>41912</v>
       </c>
@@ -1998,7 +1983,7 @@
         <v>149330330</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>41880</v>
       </c>
@@ -2009,7 +1994,7 @@
         <v>156954155</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>41851</v>
       </c>
@@ -2020,7 +2005,7 @@
         <v>163901603</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>41820</v>
       </c>
@@ -2031,7 +2016,7 @@
         <v>157908718</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>41789</v>
       </c>
@@ -2042,7 +2027,7 @@
         <v>133933874</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>41759</v>
       </c>
@@ -2053,7 +2038,7 @@
         <v>190079540</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>41729</v>
       </c>
@@ -2064,7 +2049,7 @@
         <v>187727788</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>41698</v>
       </c>
@@ -2075,7 +2060,7 @@
         <v>183227221</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>41670</v>
       </c>
@@ -2086,7 +2071,7 @@
         <v>223566950</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>41639</v>
       </c>
@@ -2097,7 +2082,7 @@
         <v>162175371</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>41607</v>
       </c>
@@ -2108,7 +2093,7 @@
         <v>151284803</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>41578</v>
       </c>
@@ -2119,7 +2104,7 @@
         <v>188003320</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>41547</v>
       </c>
@@ -2130,7 +2115,7 @@
         <v>149083528</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>41516</v>
       </c>
@@ -2141,7 +2126,7 @@
         <v>145763886</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>41486</v>
       </c>
@@ -2152,7 +2137,7 @@
         <v>173266429</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>41453</v>
       </c>
@@ -2163,7 +2148,7 @@
         <v>197070992</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>41425</v>
       </c>
@@ -2174,7 +2159,7 @@
         <v>217702708</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>41394</v>
       </c>
@@ -2185,7 +2170,7 @@
         <v>227570351</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>41361</v>
       </c>
@@ -2196,7 +2181,7 @@
         <v>154575267</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>41333</v>
       </c>
@@ -2207,7 +2192,7 @@
         <v>191919774</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>41305</v>
       </c>
@@ -2218,7 +2203,7 @@
         <v>222589851</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>41274</v>
       </c>
@@ -2229,7 +2214,7 @@
         <v>181597346</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>41243</v>
       </c>
@@ -2240,7 +2225,7 @@
         <v>165946612</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>41213</v>
       </c>
@@ -2251,7 +2236,7 @@
         <v>196145146</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>41180</v>
       </c>
@@ -2262,7 +2247,7 @@
         <v>192221753</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>41152</v>
       </c>
@@ -2273,7 +2258,7 @@
         <v>205194531</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>41121</v>
       </c>
@@ -2284,7 +2269,7 @@
         <v>326931198</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>41089</v>
       </c>
@@ -2295,7 +2280,7 @@
         <v>253165211</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>41060</v>
       </c>
@@ -2306,7 +2291,7 @@
         <v>230093165</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>41029</v>
       </c>
@@ -2317,7 +2302,7 @@
         <v>258052369</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>40998</v>
       </c>
@@ -2328,7 +2313,7 @@
         <v>176510609</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>40968</v>
       </c>
@@ -2339,7 +2324,7 @@
         <v>235129494</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>40939</v>
       </c>
@@ -2350,7 +2335,7 @@
         <v>286699992</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>40907</v>
       </c>
@@ -2361,7 +2346,7 @@
         <v>181391807</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>40877</v>
       </c>
@@ -2372,7 +2357,7 @@
         <v>176755436</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>40847</v>
       </c>
@@ -2383,7 +2368,7 @@
         <v>205971398</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>40816</v>
       </c>
@@ -2394,7 +2379,7 @@
         <v>234724911</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>40786</v>
       </c>
@@ -2405,7 +2390,7 @@
         <v>345556504</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>40753</v>
       </c>
@@ -2416,7 +2401,7 @@
         <v>206309425</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>40724</v>
       </c>
@@ -2427,7 +2412,7 @@
         <v>213636542</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>40694</v>
       </c>
@@ -2438,7 +2423,7 @@
         <v>208163503</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>40662</v>
       </c>
@@ -2449,7 +2434,7 @@
         <v>192610143</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>40633</v>
       </c>
@@ -2460,7 +2445,7 @@
         <v>243822819</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>40602</v>
       </c>
@@ -2471,7 +2456,7 @@
         <v>201140337</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>40574</v>
       </c>
@@ -2482,7 +2467,7 @@
         <v>234028951</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>40543</v>
       </c>
@@ -2493,7 +2478,7 @@
         <v>196612130</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>40512</v>
       </c>
@@ -2504,7 +2489,7 @@
         <v>202771752</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>40480</v>
       </c>
@@ -2515,7 +2500,7 @@
         <v>260823711</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>40451</v>
       </c>
@@ -2526,7 +2511,7 @@
         <v>215086530</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>40421</v>
       </c>
@@ -2537,7 +2522,7 @@
         <v>268373694</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>40389</v>
       </c>
@@ -2548,7 +2533,7 @@
         <v>255150846</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>40359</v>
       </c>
@@ -2559,7 +2544,7 @@
         <v>344043949</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>40326</v>
       </c>
@@ -2570,7 +2555,7 @@
         <v>320858888</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>40298</v>
       </c>
@@ -2581,7 +2566,7 @@
         <v>239540272</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>40268</v>
       </c>
@@ -2592,7 +2577,7 @@
         <v>217004349</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>40235</v>
       </c>
@@ -2603,7 +2588,7 @@
         <v>241532342</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>40207</v>
       </c>
@@ -2614,7 +2599,7 @@
         <v>254382292</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>40178</v>
       </c>
@@ -2631,6 +2616,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100341110151EEDAB4598DCB9BA0E7B852C" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="94b06ccbae9ea282aa527c7a79794a42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8256a770-083e-4b7c-814e-c5dff0793361" xmlns:ns4="bac3e513-b8ad-4e95-8656-605fcb31fd33" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="977405aaf8d4b9490a99ac7af1caa8c3" ns3:_="" ns4:_="">
     <xsd:import namespace="8256a770-083e-4b7c-814e-c5dff0793361"/>
@@ -2847,61 +2847,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A57F81D-9BB5-494D-BD40-5605A833A612}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB1CEF9-D5F6-417D-B9EB-85EF940D558B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AB1CEF9-D5F6-417D-B9EB-85EF940D558B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F13378-4E1E-49AD-8693-32E2874FD726}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F13378-4E1E-49AD-8693-32E2874FD726}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7A57F81D-9BB5-494D-BD40-5605A833A612}"/>
 </file>